--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Webserver - Interface umgebaut, StaticFile - Plugin begonnen</t>
+  </si>
+  <si>
+    <t>SensorCloud -Thread &amp; Timer</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -668,11 +671,19 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="5">
+        <v>41602</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tplac_000\Documents\Visual Studio 2012\Projects\SWE1\WebServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\SWE1\WebServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>SensorCloud -Thread &amp; Timer</t>
+  </si>
+  <si>
+    <t>Url vervollständigt</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -686,11 +689,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="5">
+        <v>41603</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\SWE1\WebServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tplac_000\Documents\Visual Studio 2012\Projects\SWE1\WebServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -78,7 +78,10 @@
     <t>SensorCloud -Thread &amp; Timer</t>
   </si>
   <si>
-    <t>Url vervollständigt</t>
+    <t>WebServer - URL umgebaut, Response umgebaut</t>
+  </si>
+  <si>
+    <t>WebServer - Url vervollständigt</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A17" sqref="A17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -700,15 +703,23 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>41606</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -78,10 +78,10 @@
     <t>SensorCloud -Thread &amp; Timer</t>
   </si>
   <si>
-    <t>WebServer - URL umgebaut, Response umgebaut</t>
-  </si>
-  <si>
     <t>WebServer - Url vervollständigt</t>
+  </si>
+  <si>
+    <t>WebServer - URL umgebaut, Response umgebaut SensorCloud - SQL Abfrage</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -715,10 +715,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tplac_000\Documents\Visual Studio 2012\Projects\SWE1\WebServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tplac_000\Documents\Visual Studio 2012\Projects\WebServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -72,6 +72,9 @@
     <t>Webserver - Url Klasse</t>
   </si>
   <si>
+    <t>Zeit (gesamt)</t>
+  </si>
+  <si>
     <t>Webserver - Interface umgebaut, StaticFile - Plugin begonnen</t>
   </si>
   <si>
@@ -81,7 +84,16 @@
     <t>WebServer - Url vervollständigt</t>
   </si>
   <si>
+    <t>WebServer - URL umgebaut, Response umgebaut</t>
+  </si>
+  <si>
     <t>WebServer - URL umgebaut, Response umgebaut SensorCloud - SQL Abfrage</t>
+  </si>
+  <si>
+    <t>StaticFile - Begonnen</t>
+  </si>
+  <si>
+    <t>WebServer - Plugin Manager, 1. UnitTest</t>
   </si>
 </sst>
 </file>
@@ -133,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -141,11 +153,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -171,6 +251,24 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -459,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -472,13 +570,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
@@ -489,123 +587,111 @@
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13">
+        <f>SUMIF(B8:B100,"Teresa",D8:D100)</f>
+        <v>37</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14">
+        <f>SUMIF(B8:B100,"Karin",D8:D100)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>41545</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>41547</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>41554</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>41561</v>
-      </c>
-      <c r="B8" s="8" t="s">
+        <v>41545</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>41561</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>41547</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>41570</v>
+        <v>41554</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>41575</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>41561</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1"/>
@@ -613,155 +699,203 @@
         <v>1.5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>41577</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>41561</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>41592</v>
+        <v>41570</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>41600</v>
+        <v>41575</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>41601</v>
+        <v>41577</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>41602</v>
+        <v>41592</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>41603</v>
+        <v>41600</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>41606</v>
+        <v>41601</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>41602</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>41603</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>41606</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>41606</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2">
         <v>6</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="5">
+        <v>41610</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="5">
+        <v>41610</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -798,21 +932,21 @@
       <c r="D29" s="2"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1700,6 +1834,27 @@
       <c r="C158" s="1"/>
       <c r="D158" s="2"/>
       <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -93,7 +93,13 @@
     <t>StaticFile - Begonnen</t>
   </si>
   <si>
-    <t>WebServer - Plugin Manager, 1. UnitTest</t>
+    <t>WebServer - Plugin Manager, UnitTest - 1</t>
+  </si>
+  <si>
+    <t>UnitTest - 2, 3, 4</t>
+  </si>
+  <si>
+    <t>StaticFile - Fertig, SensorCloud - XML</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -601,7 +607,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B100,"Teresa",D8:D100)</f>
-        <v>37</v>
+        <v>39.5</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -876,7 +882,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>23</v>
@@ -898,18 +904,34 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="5">
+        <v>41611</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="5">
+        <v>41611</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tplac_000\Documents\Visual Studio 2012\Projects\WebServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\SWE1\WebServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>StaticFile - Fertig, SensorCloud - XML</t>
+  </si>
+  <si>
+    <t>Webserver - index.html Startseite</t>
   </si>
 </sst>
 </file>
@@ -565,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -619,7 +622,7 @@
       </c>
       <c r="C5" s="14">
         <f>SUMIF(B8:B100,"Karin",D8:D100)</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -934,11 +937,19 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="5">
+        <v>41612</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\SWE1\WebServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2012\Projects\WebServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Webserver - index.html Startseite</t>
+  </si>
+  <si>
+    <t>Navi &amp; Esoterik - begonnen</t>
+  </si>
+  <si>
+    <t>Esoterik - (fast) abgeschlossen</t>
   </si>
 </sst>
 </file>
@@ -568,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -610,7 +616,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B100,"Teresa",D8:D100)</f>
-        <v>39.5</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -952,18 +958,34 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="5">
+        <v>41633</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="5">
+        <v>41635</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2012\Projects\WebServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2012\Projects\SWE1\WebServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Esoterik - (fast) abgeschlossen</t>
+  </si>
+  <si>
+    <t>Esoterik - fertig</t>
+  </si>
+  <si>
+    <t>Webserver - post/get</t>
+  </si>
+  <si>
+    <t>Webserver - post/get &amp; Fehler behoben</t>
   </si>
 </sst>
 </file>
@@ -574,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -616,7 +625,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B100,"Teresa",D8:D100)</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -988,25 +997,49 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="5">
+        <v>41636</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="5">
+        <v>41641</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="5">
+        <v>41642</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -114,10 +114,13 @@
     <t>Esoterik - fertig</t>
   </si>
   <si>
-    <t>Webserver - post/get</t>
-  </si>
-  <si>
-    <t>Webserver - post/get &amp; Fehler behoben</t>
+    <t>Webserver - POST geht endlich..lalalalala :D</t>
+  </si>
+  <si>
+    <t>Webserver - post/get, einige Sachen geändert</t>
+  </si>
+  <si>
+    <t>Webserver - POST &amp; Fehler behoben</t>
   </si>
 </sst>
 </file>
@@ -583,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -625,7 +628,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B100,"Teresa",D8:D100)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -1023,7 +1026,7 @@
         <v>3.5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1038,15 +1041,23 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="5">
+        <v>41643</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2012\Projects\SWE1\WebServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\SWE1\WebServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Webserver - POST &amp; Fehler behoben</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
   </si>
 </sst>
 </file>
@@ -587,7 +593,7 @@
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -640,7 +646,7 @@
       </c>
       <c r="C5" s="14">
         <f>SUMIF(B8:B100,"Karin",D8:D100)</f>
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -1060,25 +1066,49 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="5">
+        <v>41645</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="5">
+        <v>41645</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="5">
+        <v>41646</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>

--- a/WebServer/Zeiterfassung.xlsx
+++ b/WebServer/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>Navi Plugin fertig &amp; Unit Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Tests, Navi Plugin </t>
   </si>
 </sst>
 </file>
@@ -593,7 +599,7 @@
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -646,7 +652,7 @@
       </c>
       <c r="C5" s="14">
         <f>SUMIF(B8:B100,"Karin",D8:D100)</f>
-        <v>15</v>
+        <v>24.5</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -1089,10 +1095,10 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,18 +1110,26 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="5">
+        <v>41647</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="2">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
